--- a/design_file/Datapath&Ctrl_Pipeline.xlsx
+++ b/design_file/Datapath&Ctrl_Pipeline.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="数据通路表" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="285">
   <si>
     <t>部件</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -113,45 +113,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>IROM.inst[19:15]</t>
-  </si>
-  <si>
-    <t>IROM.inst[24:20]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>IROM.inst[11:7]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ALU.C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RF.rD1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RF.rD2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>sub</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>IROM.inst[19:15]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IROM.inst[11:7]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RF.rD2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>and</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -160,14 +129,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>IROM.inst[19:15]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IROM.inst[24:20]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>or</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -180,18 +141,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ALU.C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>sll</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>RF.rD1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>srl</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -204,14 +157,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>IROM.inst[31:20]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SEXT.ext</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>andi</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -220,10 +165,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SEXT.ext</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>xori</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -236,10 +177,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>IROM.inst[31:20]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>srai</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -248,34 +185,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DRAM.rd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>jalr</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PC.pc4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>sw</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>IROM.inst[31:25|11:7]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>beq</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>IROM.inst[31|7|30:25|11:8]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>bne</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -284,10 +205,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>IROM.inst[31|7|30:25|11:8]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>bge</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -296,35 +213,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>IROM.inst[31:12]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>jal</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PC.pc4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IROM.inst[31|19:12|20|30:21]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>完整</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0: PC.pc
-1: RF.rD1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IROM.inst[31:7]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>操作选择信号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -505,73 +401,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IROM.inst[19:15]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IROM.inst[19:15]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IROM.inst[11:7]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RF.rD1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RF.rD2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NPC.npc</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>IROM.inst[24:20]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DRAM.rd[7:0]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DRAM.rd[15:0]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RF.rD2[7:0]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RF.rD2[15:0]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC.pc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SEXT.ext</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0: RF.rD1
-1: PC.pc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>alua_sel</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>00: RF.rD2
-01: RF.rD2[7:0]
-10: RF.rD2[15:0]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>wdin_sel</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -851,11 +688,6 @@
   <si>
     <t>[2:0]</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0: SEXT.ext
-1: BRANCH.exto</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BRANCH.exto</t>
@@ -878,20 +710,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>000: ALU.C
-001: DRAM.rd
-010: DRAM.rd[7:0]
-011: DRAM.rd[15:0]
-100: PC.pc4
-101: SEXT.ext</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0: RF.rD2
-1: SEXT.ext</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[2:0]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1114,6 +932,229 @@
   <si>
     <t>[4:0]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC.pc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC.pc4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IROM.inst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000: MEM/WB.aluc
+001: MEM/WB.dramrd
+010: MEM/WB.dramrd[7:0]
+011: MEM/WB.dramrd[15:0]
+100: MEM/WB.pc4
+101: MEM/WB.ext</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF.rD1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF.rD2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEXT.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF/ID.pc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF/ID.pc4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALU.C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID/EX.rD2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID/EX.pc4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID/EX.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX/MEM.aluc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRAM.rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX/MEM.pc4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX/MEM.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF/ID.inst[19:15]</t>
+  </si>
+  <si>
+    <t>IF/ID.inst[19:15]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF/ID.inst[24:20]</t>
+  </si>
+  <si>
+    <t>IF/ID.inst[24:20]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF/ID.inst[11:7]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM/WB.aluc</t>
+  </si>
+  <si>
+    <t>MEM/WB.dramrd[7:0]</t>
+  </si>
+  <si>
+    <t>MEM/WB.dramrd[15:0]</t>
+  </si>
+  <si>
+    <t>MEM/WB.dramrd</t>
+  </si>
+  <si>
+    <t>MEM/WB.pc4</t>
+  </si>
+  <si>
+    <t>MEM/WB.ext</t>
+  </si>
+  <si>
+    <t>IF/ID.inst[31:20]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF/ID.inst[31:25|11:7]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF/ID.inst[31|7|30:25|11:8]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF/ID.inst[31:12]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF/ID.inst[31|19:12|20|30:21]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF/ID.inst[31:7]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID/EX.rD1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID/EX.pc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0: ID/EX.rD1
+1: ID/EX.pc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID/EX.rD2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID/EX.ext</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID/EX.rD2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0: ID/EX.rD2
+1: ID/EX.ext</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID/EX.pc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID/EX.rD1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0: ID/EX.pc
+1: ID/EX.rD1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0: ID/EX.ext
+1: BRANCH.exto</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX/MEM.aluc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX/MEM.rD2[7:0]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX/MEM.rD2[15:0]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX/MEM.rD2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00: EX/MEM.rD2
+01: EX/MEM.rD2[7:0]
+10: EX/MEM.rD2[15:0]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1255,7 +1296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1333,6 +1374,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1648,10 +1701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AB51"/>
+  <dimension ref="B2:AG51"/>
   <sheetViews>
-    <sheetView topLeftCell="L28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R55" sqref="R55"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB49" sqref="AB49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1664,72 +1717,77 @@
     <col min="8" max="8" width="16.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.375" customWidth="1"/>
     <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.375" customWidth="1"/>
+    <col min="11" max="11" width="26.375" customWidth="1"/>
     <col min="12" max="12" width="27.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.5" customWidth="1"/>
     <col min="14" max="14" width="21.125" customWidth="1"/>
-    <col min="15" max="16" width="19.875" customWidth="1"/>
-    <col min="17" max="17" width="9.625" customWidth="1"/>
-    <col min="18" max="19" width="11.75" customWidth="1"/>
-    <col min="20" max="20" width="14" customWidth="1"/>
-    <col min="21" max="21" width="15.625" customWidth="1"/>
-    <col min="22" max="23" width="17.75" customWidth="1"/>
-    <col min="24" max="24" width="7.5" customWidth="1"/>
-    <col min="25" max="25" width="15.75" customWidth="1"/>
-    <col min="26" max="27" width="14" customWidth="1"/>
-    <col min="28" max="28" width="13.5" customWidth="1"/>
+    <col min="15" max="17" width="19.875" customWidth="1"/>
+    <col min="18" max="18" width="11.875" customWidth="1"/>
+    <col min="19" max="20" width="11.75" customWidth="1"/>
+    <col min="21" max="21" width="14" customWidth="1"/>
+    <col min="22" max="22" width="15.625" customWidth="1"/>
+    <col min="23" max="26" width="17.75" customWidth="1"/>
+    <col min="27" max="27" width="15.625" customWidth="1"/>
+    <col min="28" max="28" width="21.625" customWidth="1"/>
+    <col min="29" max="32" width="14" customWidth="1"/>
+    <col min="33" max="33" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="W2" s="26"/>
-      <c r="X2" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1739,52 +1797,57 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="24" t="s">
+      <c r="E3" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="26"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="29"/>
       <c r="L3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="24" t="s">
+      <c r="M3" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="26"/>
-      <c r="S3" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="T3" s="24" t="s">
+      <c r="S3" s="29"/>
+      <c r="T3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="U3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="26"/>
-      <c r="V3" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="W3" s="26"/>
-      <c r="X3" s="24" t="s">
+      <c r="V3" s="29"/>
+      <c r="W3" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="3"/>
-    </row>
-    <row r="4" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="3"/>
+    </row>
+    <row r="4" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1795,13 +1858,13 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>12</v>
@@ -1819,53 +1882,68 @@
         <v>16</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="N4" s="22" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="T4" s="22" t="s">
-        <v>1</v>
+      <c r="T4" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="U4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="V4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="W4" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="X4" s="1" t="s">
+      <c r="W4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="X4" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y4" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z4" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Z4" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB4" s="3"/>
-    </row>
-    <row r="5" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AC4" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="AG4" s="3"/>
+    </row>
+    <row r="5" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1879,44 +1957,49 @@
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
       <c r="H5" s="1" t="s">
-        <v>24</v>
+        <v>253</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>25</v>
+        <v>255</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>27</v>
+        <v>256</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>257</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="22"/>
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
-      <c r="Q5" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="Q5" s="23"/>
       <c r="R5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S5" s="1"/>
-      <c r="T5" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U5" s="22"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
+        <v>269</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="V5" s="22"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="1"/>
       <c r="AB5" s="3"/>
-    </row>
-    <row r="6" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+    </row>
+    <row r="6" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>22</v>
@@ -1927,48 +2010,53 @@
       <c r="E6" s="1"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
-      <c r="H6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>27</v>
+      <c r="H6" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>257</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
-      <c r="Q6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" s="1"/>
-      <c r="T6" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U6" s="22"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S6" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V6" s="22"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="1"/>
       <c r="AB6" s="3"/>
-    </row>
-    <row r="7" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+    </row>
+    <row r="7" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>23</v>
@@ -1976,48 +2064,53 @@
       <c r="E7" s="1"/>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
-      <c r="H7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>27</v>
+      <c r="H7" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>257</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S7" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V7" s="22"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+    </row>
+    <row r="8" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S7" s="1"/>
-      <c r="T7" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U7" s="22"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-    </row>
-    <row r="8" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B8" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>23</v>
@@ -2025,146 +2118,161 @@
       <c r="E8" s="1"/>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
-      <c r="H8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>27</v>
+      <c r="H8" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>257</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
-      <c r="Q8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S8" s="1"/>
-      <c r="T8" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U8" s="22"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S8" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V8" s="22"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="1"/>
       <c r="AB8" s="3"/>
-    </row>
-    <row r="9" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+    </row>
+    <row r="9" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
-      <c r="H9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>41</v>
+      <c r="H9" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>257</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
-      <c r="Q9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S9" s="1"/>
-      <c r="T9" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U9" s="22"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S9" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V9" s="22"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="1"/>
       <c r="AB9" s="3"/>
-    </row>
-    <row r="10" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+    </row>
+    <row r="10" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
-      <c r="H10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>27</v>
+      <c r="H10" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>257</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
-      <c r="Q10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S10" s="1"/>
-      <c r="T10" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U10" s="22"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S10" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V10" s="22"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="1"/>
       <c r="AB10" s="3"/>
-    </row>
-    <row r="11" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+    </row>
+    <row r="11" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>23</v>
@@ -2172,48 +2280,53 @@
       <c r="E11" s="1"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
-      <c r="H11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>27</v>
+      <c r="H11" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>257</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
-      <c r="Q11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R11" s="1" t="s">
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S11" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V11" s="22"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="S11" s="1"/>
-      <c r="T11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U11" s="22"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B12" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>23</v>
@@ -2221,48 +2334,53 @@
       <c r="E12" s="1"/>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
-      <c r="H12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>27</v>
+      <c r="H12" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>257</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
-      <c r="Q12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S12" s="1"/>
-      <c r="T12" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U12" s="22"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S12" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V12" s="22"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="1"/>
       <c r="AB12" s="3"/>
-    </row>
-    <row r="13" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+    </row>
+    <row r="13" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B13" s="9" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>23</v>
@@ -2270,48 +2388,53 @@
       <c r="E13" s="1"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>27</v>
+      <c r="H13" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>257</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
-      <c r="Q13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="S13" s="1"/>
-      <c r="T13" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U13" s="22"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S13" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V13" s="22"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="1"/>
       <c r="AB13" s="3"/>
-    </row>
-    <row r="14" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+    </row>
+    <row r="14" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B14" s="9" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>23</v>
@@ -2319,48 +2442,53 @@
       <c r="E14" s="1"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
-      <c r="H14" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>27</v>
+      <c r="H14" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>257</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
-      <c r="Q14" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S14" s="1"/>
-      <c r="T14" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U14" s="22"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S14" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V14" s="22"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="1"/>
       <c r="AB14" s="3"/>
-    </row>
-    <row r="15" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+    </row>
+    <row r="15" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B15" s="9" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>23</v>
@@ -2368,48 +2496,53 @@
       <c r="E15" s="1"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
-      <c r="H15" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>27</v>
+      <c r="H15" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>257</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
-      <c r="Q15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S15" s="1"/>
-      <c r="T15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U15" s="22"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S15" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V15" s="22"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="1"/>
       <c r="AB15" s="3"/>
-    </row>
-    <row r="16" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+    </row>
+    <row r="16" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B16" s="9" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>23</v>
@@ -2417,48 +2550,53 @@
       <c r="E16" s="1"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>27</v>
+      <c r="H16" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>257</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
-      <c r="Q16" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S16" s="1"/>
-      <c r="T16" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U16" s="22"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S16" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V16" s="22"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="1"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+    </row>
+    <row r="17" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B17" s="9" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>23</v>
@@ -2466,48 +2604,53 @@
       <c r="E17" s="1"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>27</v>
+      <c r="H17" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>257</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
-      <c r="Q17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S17" s="1"/>
-      <c r="T17" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U17" s="22"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S17" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V17" s="22"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="1"/>
       <c r="AB17" s="3"/>
-    </row>
-    <row r="18" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+    </row>
+    <row r="18" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B18" s="9" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>23</v>
@@ -2515,48 +2658,53 @@
       <c r="E18" s="1"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
-      <c r="H18" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>27</v>
+      <c r="H18" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>257</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
-      <c r="Q18" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S18" s="1"/>
-      <c r="T18" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U18" s="22"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S18" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="T18" s="1"/>
+      <c r="U18" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V18" s="22"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="1"/>
       <c r="AB18" s="3"/>
-    </row>
-    <row r="19" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+    </row>
+    <row r="19" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B19" s="9" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>23</v>
@@ -2564,48 +2712,53 @@
       <c r="E19" s="1"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>27</v>
+      <c r="H19" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>257</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
-      <c r="Q19" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S19" s="1"/>
-      <c r="T19" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U19" s="22"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S19" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V19" s="22"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="1"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+    </row>
+    <row r="20" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B20" s="9" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>23</v>
@@ -2613,48 +2766,53 @@
       <c r="E20" s="1"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>27</v>
+      <c r="H20" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>257</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
       <c r="P20" s="22"/>
-      <c r="Q20" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S20" s="1"/>
-      <c r="T20" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U20" s="22"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S20" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="T20" s="1"/>
+      <c r="U20" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V20" s="22"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="1"/>
       <c r="AB20" s="3"/>
-    </row>
-    <row r="21" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+    </row>
+    <row r="21" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B21" s="9" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>23</v>
@@ -2662,48 +2820,53 @@
       <c r="E21" s="1"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>27</v>
+      <c r="H21" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>257</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
       <c r="P21" s="22"/>
-      <c r="Q21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S21" s="1"/>
-      <c r="T21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U21" s="22"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S21" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="T21" s="1"/>
+      <c r="U21" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V21" s="22"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="1"/>
       <c r="AB21" s="3"/>
-    </row>
-    <row r="22" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+    </row>
+    <row r="22" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B22" s="9" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>23</v>
@@ -2711,48 +2874,53 @@
       <c r="E22" s="1"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
-      <c r="H22" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>27</v>
+      <c r="H22" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>257</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
       <c r="P22" s="22"/>
-      <c r="Q22" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S22" s="1"/>
-      <c r="T22" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U22" s="22"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S22" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="T22" s="1"/>
+      <c r="U22" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V22" s="22"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="1"/>
       <c r="AB22" s="3"/>
-    </row>
-    <row r="23" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+    </row>
+    <row r="23" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>23</v>
@@ -2760,48 +2928,53 @@
       <c r="E23" s="1"/>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
-      <c r="H23" s="1" t="s">
-        <v>31</v>
+      <c r="H23" s="23" t="s">
+        <v>252</v>
       </c>
       <c r="I23" s="1"/>
-      <c r="J23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>41</v>
+      <c r="J23" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>257</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>47</v>
+        <v>263</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
-      <c r="Q23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S23" s="1"/>
-      <c r="T23" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U23" s="22"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="T23" s="1"/>
+      <c r="U23" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V23" s="22"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="1"/>
       <c r="AB23" s="3"/>
-    </row>
-    <row r="24" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+    </row>
+    <row r="24" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>23</v>
@@ -2809,45 +2982,50 @@
       <c r="E24" s="1"/>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
-      <c r="H24" s="1" t="s">
-        <v>31</v>
+      <c r="H24" s="23" t="s">
+        <v>252</v>
       </c>
       <c r="I24" s="1"/>
-      <c r="J24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>47</v>
+      <c r="J24" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>263</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
       <c r="P24" s="22"/>
-      <c r="Q24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S24" s="1"/>
-      <c r="T24" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U24" s="22"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S24" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="T24" s="1"/>
+      <c r="U24" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V24" s="22"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="1"/>
       <c r="AB24" s="3"/>
-    </row>
-    <row r="25" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+    </row>
+    <row r="25" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>22</v>
@@ -2858,94 +3036,104 @@
       <c r="E25" s="1"/>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
-      <c r="H25" s="1" t="s">
-        <v>36</v>
+      <c r="H25" s="23" t="s">
+        <v>252</v>
       </c>
       <c r="I25" s="1"/>
-      <c r="J25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>47</v>
+      <c r="J25" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="L25" s="23" t="s">
+        <v>263</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="22"/>
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
-      <c r="Q25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S25" s="1"/>
-      <c r="T25" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U25" s="22"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S25" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="T25" s="1"/>
+      <c r="U25" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V25" s="22"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="1"/>
       <c r="AB25" s="3"/>
-    </row>
-    <row r="26" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+    </row>
+    <row r="26" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
-      <c r="H26" s="1" t="s">
-        <v>36</v>
+      <c r="H26" s="23" t="s">
+        <v>252</v>
       </c>
       <c r="I26" s="1"/>
-      <c r="J26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>47</v>
+      <c r="J26" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="L26" s="23" t="s">
+        <v>263</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="22"/>
       <c r="O26" s="22"/>
       <c r="P26" s="22"/>
-      <c r="Q26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S26" s="1"/>
-      <c r="T26" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U26" s="22"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S26" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="U26" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V26" s="22"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="1"/>
       <c r="AB26" s="3"/>
-    </row>
-    <row r="27" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+    </row>
+    <row r="27" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>22</v>
@@ -2956,48 +3144,53 @@
       <c r="E27" s="1"/>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="1" t="s">
-        <v>36</v>
+      <c r="H27" s="23" t="s">
+        <v>252</v>
       </c>
       <c r="I27" s="1"/>
-      <c r="J27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>47</v>
+      <c r="J27" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="L27" s="23" t="s">
+        <v>263</v>
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="22"/>
       <c r="O27" s="22"/>
       <c r="P27" s="22"/>
-      <c r="Q27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S27" s="1"/>
-      <c r="T27" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U27" s="22"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S27" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="T27" s="1"/>
+      <c r="U27" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V27" s="22"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="1"/>
       <c r="AB27" s="3"/>
-    </row>
-    <row r="28" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+    </row>
+    <row r="28" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>23</v>
@@ -3005,192 +3198,212 @@
       <c r="E28" s="1"/>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="1" t="s">
-        <v>36</v>
+      <c r="H28" s="23" t="s">
+        <v>252</v>
       </c>
       <c r="I28" s="1"/>
-      <c r="J28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>55</v>
+      <c r="J28" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>263</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="22"/>
       <c r="O28" s="22"/>
       <c r="P28" s="22"/>
-      <c r="Q28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S28" s="1"/>
-      <c r="T28" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U28" s="22"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S28" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="T28" s="1"/>
+      <c r="U28" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V28" s="22"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="1"/>
       <c r="AB28" s="3"/>
-    </row>
-    <row r="29" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+    </row>
+    <row r="29" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="1" t="s">
-        <v>36</v>
+      <c r="H29" s="23" t="s">
+        <v>252</v>
       </c>
       <c r="I29" s="1"/>
-      <c r="J29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>47</v>
+      <c r="J29" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>263</v>
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="22"/>
       <c r="O29" s="22"/>
       <c r="P29" s="22"/>
-      <c r="Q29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S29" s="1"/>
-      <c r="T29" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U29" s="22"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S29" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="T29" s="1"/>
+      <c r="U29" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V29" s="22"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="1"/>
       <c r="AB29" s="3"/>
-    </row>
-    <row r="30" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+    </row>
+    <row r="30" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B30" s="9" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="1" t="s">
-        <v>36</v>
+      <c r="H30" s="23" t="s">
+        <v>252</v>
       </c>
       <c r="I30" s="1"/>
-      <c r="J30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>47</v>
+      <c r="J30" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="L30" s="23" t="s">
+        <v>263</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="22"/>
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
-      <c r="Q30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S30" s="1"/>
-      <c r="T30" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U30" s="22"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="22"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S30" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="T30" s="1"/>
+      <c r="U30" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V30" s="22"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="1"/>
       <c r="AB30" s="3"/>
-    </row>
-    <row r="31" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+    </row>
+    <row r="31" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B31" s="9" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="1" t="s">
-        <v>36</v>
+      <c r="H31" s="23" t="s">
+        <v>252</v>
       </c>
       <c r="I31" s="1"/>
-      <c r="J31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>47</v>
+      <c r="J31" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="K31" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="L31" s="23" t="s">
+        <v>263</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="22"/>
       <c r="O31" s="22"/>
       <c r="P31" s="22"/>
-      <c r="Q31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S31" s="1"/>
-      <c r="T31" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U31" s="22"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S31" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="T31" s="1"/>
+      <c r="U31" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V31" s="22"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="1"/>
       <c r="AB31" s="3"/>
-    </row>
-    <row r="32" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+    </row>
+    <row r="32" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B32" s="9" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>22</v>
@@ -3201,47 +3414,52 @@
       <c r="E32" s="1"/>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="1" t="s">
-        <v>31</v>
+      <c r="H32" s="23" t="s">
+        <v>252</v>
       </c>
       <c r="I32" s="1"/>
-      <c r="J32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>47</v>
+      <c r="J32" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="K32" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="L32" s="23" t="s">
+        <v>263</v>
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
       <c r="P32" s="22"/>
-      <c r="Q32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S32" s="1"/>
-      <c r="T32" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U32" s="22"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S32" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="T32" s="1"/>
+      <c r="U32" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V32" s="22"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="AB32" s="3"/>
-    </row>
-    <row r="33" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+    </row>
+    <row r="33" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B33" s="9" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>22</v>
@@ -3252,50 +3470,55 @@
       <c r="E33" s="1"/>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="1" t="s">
-        <v>31</v>
+      <c r="H33" s="23" t="s">
+        <v>252</v>
       </c>
       <c r="I33" s="1"/>
-      <c r="J33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>47</v>
+      <c r="J33" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="K33" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="L33" s="23" t="s">
+        <v>263</v>
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
       <c r="P33" s="22"/>
-      <c r="Q33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S33" s="1"/>
-      <c r="T33" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U33" s="22"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="1" t="s">
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S33" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="T33" s="1"/>
+      <c r="U33" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V33" s="22"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+    </row>
+    <row r="34" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-    </row>
-    <row r="34" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B34" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>23</v>
@@ -3303,47 +3526,52 @@
       <c r="E34" s="1"/>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="1" t="s">
-        <v>31</v>
+      <c r="H34" s="23" t="s">
+        <v>252</v>
       </c>
       <c r="I34" s="1"/>
-      <c r="J34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>47</v>
+      <c r="J34" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="K34" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="L34" s="23" t="s">
+        <v>263</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
       <c r="P34" s="22"/>
-      <c r="Q34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S34" s="1"/>
-      <c r="T34" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U34" s="22"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="22"/>
-      <c r="X34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S34" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="T34" s="1"/>
+      <c r="U34" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V34" s="22"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23" t="s">
+        <v>280</v>
+      </c>
       <c r="AB34" s="3"/>
-    </row>
-    <row r="35" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+    </row>
+    <row r="35" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>22</v>
@@ -3354,46 +3582,51 @@
       <c r="E35" s="1"/>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="1" t="s">
-        <v>36</v>
+      <c r="H35" s="23" t="s">
+        <v>252</v>
       </c>
       <c r="I35" s="1"/>
-      <c r="J35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>47</v>
+      <c r="J35" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="K35" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="L35" s="23" t="s">
+        <v>263</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
       <c r="P35" s="22"/>
-      <c r="Q35" s="1"/>
+      <c r="Q35" s="23"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
-      <c r="T35" s="22" t="s">
-        <v>28</v>
-      </c>
+      <c r="T35" s="1"/>
       <c r="U35" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="V35" s="1"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
+        <v>277</v>
+      </c>
+      <c r="V35" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="W35" s="1"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="23"/>
+      <c r="AA35" s="1"/>
       <c r="AB35" s="3"/>
-    </row>
-    <row r="36" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+    </row>
+    <row r="36" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B36" s="9" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>23</v>
@@ -3401,50 +3634,55 @@
       <c r="E36" s="1"/>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
-      <c r="H36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>25</v>
+      <c r="H36" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>255</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1" t="s">
-        <v>62</v>
+        <v>264</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
       <c r="P36" s="22"/>
-      <c r="Q36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S36" s="1"/>
-      <c r="T36" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U36" s="22"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="1" t="s">
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S36" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="T36" s="1"/>
+      <c r="U36" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V36" s="22"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="AB36" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+    </row>
+    <row r="37" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B37" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="Y36" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="3"/>
-    </row>
-    <row r="37" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B37" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>23</v>
@@ -3452,50 +3690,55 @@
       <c r="E37" s="1"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>25</v>
+      <c r="H37" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>255</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="1" t="s">
-        <v>62</v>
+      <c r="L37" s="23" t="s">
+        <v>264</v>
       </c>
       <c r="M37" s="1"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
       <c r="P37" s="22"/>
-      <c r="Q37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S37" s="1"/>
-      <c r="T37" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U37" s="22"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="1" t="s">
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S37" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="T37" s="1"/>
+      <c r="U37" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V37" s="22"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="23"/>
+      <c r="Z37" s="23"/>
+      <c r="AA37" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="AB37" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+    </row>
+    <row r="38" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="Y37" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z37" s="3"/>
-      <c r="AA37" s="3"/>
-      <c r="AB37" s="3"/>
-    </row>
-    <row r="38" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>23</v>
@@ -3503,47 +3746,52 @@
       <c r="E38" s="1"/>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>25</v>
+      <c r="H38" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>255</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="1" t="s">
-        <v>62</v>
+      <c r="L38" s="23" t="s">
+        <v>264</v>
       </c>
       <c r="M38" s="1"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
       <c r="P38" s="22"/>
-      <c r="Q38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S38" s="1"/>
-      <c r="T38" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U38" s="22"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="22"/>
-      <c r="X38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y38" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z38" s="3"/>
-      <c r="AA38" s="3"/>
-      <c r="AB38" s="3"/>
-    </row>
-    <row r="39" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S38" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="T38" s="1"/>
+      <c r="U38" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V38" s="22"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="23"/>
+      <c r="Z38" s="23"/>
+      <c r="AA38" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="AB38" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+    </row>
+    <row r="39" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>22</v>
@@ -3554,305 +3802,335 @@
       <c r="E39" s="1"/>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>37</v>
+      <c r="H39" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="I39" s="23" t="s">
+        <v>255</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1" t="s">
-        <v>64</v>
+        <v>265</v>
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
       <c r="P39" s="22"/>
-      <c r="Q39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>33</v>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23" t="s">
+        <v>269</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T39" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U39" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="V39" s="1"/>
-      <c r="W39" s="22"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="3"/>
+        <v>274</v>
+      </c>
+      <c r="T39" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="U39" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V39" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="W39" s="1"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="23"/>
+      <c r="Z39" s="23"/>
+      <c r="AA39" s="1"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+    </row>
+    <row r="40" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>25</v>
+      <c r="H40" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="I40" s="23" t="s">
+        <v>255</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="1" t="s">
-        <v>64</v>
+      <c r="L40" s="23" t="s">
+        <v>265</v>
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
       <c r="P40" s="22"/>
-      <c r="Q40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T40" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U40" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="V40" s="1"/>
-      <c r="W40" s="22"/>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S40" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="T40" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="U40" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V40" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="W40" s="1"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="23"/>
+      <c r="Z40" s="23"/>
+      <c r="AA40" s="1"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+    </row>
+    <row r="41" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>25</v>
+      <c r="H41" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="I41" s="23" t="s">
+        <v>255</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="1" t="s">
-        <v>67</v>
+      <c r="L41" s="23" t="s">
+        <v>265</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
       <c r="P41" s="22"/>
-      <c r="Q41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T41" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U41" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="V41" s="1"/>
-      <c r="W41" s="22"/>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S41" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="T41" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="U41" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V41" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="W41" s="1"/>
+      <c r="X41" s="22"/>
+      <c r="Y41" s="23"/>
+      <c r="Z41" s="23"/>
+      <c r="AA41" s="1"/>
       <c r="AB41" s="3"/>
-    </row>
-    <row r="42" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="3"/>
+      <c r="AG41" s="3"/>
+    </row>
+    <row r="42" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B42" s="9" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>25</v>
+      <c r="H42" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>255</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="1" t="s">
-        <v>67</v>
+      <c r="L42" s="23" t="s">
+        <v>265</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
       <c r="P42" s="22"/>
-      <c r="Q42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T42" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U42" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="V42" s="1"/>
-      <c r="W42" s="22"/>
-      <c r="X42" s="1"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="3"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S42" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="T42" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="U42" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V42" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="W42" s="1"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="23"/>
+      <c r="Z42" s="23"/>
+      <c r="AA42" s="1"/>
       <c r="AB42" s="3"/>
-    </row>
-    <row r="43" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="3"/>
+      <c r="AG42" s="3"/>
+    </row>
+    <row r="43" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>25</v>
+      <c r="H43" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="I43" s="23" t="s">
+        <v>255</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="1" t="s">
-        <v>64</v>
+      <c r="L43" s="23" t="s">
+        <v>265</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
       <c r="P43" s="22"/>
-      <c r="Q43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T43" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U43" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="V43" s="1"/>
-      <c r="W43" s="22"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S43" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="T43" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="U43" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V43" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="W43" s="1"/>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="23"/>
+      <c r="Z43" s="23"/>
+      <c r="AA43" s="1"/>
       <c r="AB43" s="3"/>
-    </row>
-    <row r="44" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3"/>
+      <c r="AF43" s="3"/>
+      <c r="AG43" s="3"/>
+    </row>
+    <row r="44" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B44" s="9" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
-      <c r="H44" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>25</v>
+      <c r="H44" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="I44" s="23" t="s">
+        <v>255</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="L44" s="1" t="s">
-        <v>64</v>
+      <c r="L44" s="23" t="s">
+        <v>265</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
       <c r="P44" s="22"/>
-      <c r="Q44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S44" s="1" t="s">
+      <c r="Q44" s="23"/>
+      <c r="R44" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="S44" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="T44" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="U44" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V44" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="W44" s="1"/>
+      <c r="X44" s="22"/>
+      <c r="Y44" s="23"/>
+      <c r="Z44" s="23"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3"/>
+      <c r="AF44" s="3"/>
+      <c r="AG44" s="3"/>
+    </row>
+    <row r="45" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B45" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="T44" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U44" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="V44" s="1"/>
-      <c r="W44" s="22"/>
-      <c r="X44" s="1"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="3"/>
-      <c r="AB44" s="3"/>
-    </row>
-    <row r="45" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B45" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>23</v>
@@ -3862,40 +4140,45 @@
       <c r="G45" s="22"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>51</v>
+      <c r="J45" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="K45" s="23" t="s">
+        <v>262</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>70</v>
+        <v>266</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
       <c r="P45" s="22"/>
-      <c r="Q45" s="1"/>
+      <c r="Q45" s="23"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
-      <c r="T45" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U45" s="22"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="22"/>
-      <c r="X45" s="1"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
-      <c r="AA45" s="3"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V45" s="22"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="22"/>
+      <c r="Y45" s="23"/>
+      <c r="Z45" s="23"/>
+      <c r="AA45" s="1"/>
       <c r="AB45" s="3"/>
-    </row>
-    <row r="46" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="3"/>
+      <c r="AG45" s="3"/>
+    </row>
+    <row r="46" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B46" s="9" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>23</v>
@@ -3905,44 +4188,49 @@
       <c r="G46" s="22"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>70</v>
+      <c r="J46" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="K46" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="L46" s="23" t="s">
+        <v>266</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
       <c r="P46" s="22"/>
-      <c r="Q46" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="Q46" s="23"/>
       <c r="R46" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="S46" s="1"/>
-      <c r="T46" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U46" s="22"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="22"/>
-      <c r="X46" s="1"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-      <c r="AA46" s="3"/>
+        <v>270</v>
+      </c>
+      <c r="S46" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="T46" s="1"/>
+      <c r="U46" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V46" s="22"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="22"/>
+      <c r="Y46" s="23"/>
+      <c r="Z46" s="23"/>
+      <c r="AA46" s="1"/>
       <c r="AB46" s="3"/>
-    </row>
-    <row r="47" spans="2:28" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC46" s="3"/>
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3"/>
+      <c r="AF46" s="3"/>
+      <c r="AG46" s="3"/>
+    </row>
+    <row r="47" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>23</v>
@@ -3952,278 +4240,335 @@
       <c r="G47" s="22"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>72</v>
+      <c r="J47" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="K47" s="23" t="s">
+        <v>261</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>73</v>
+        <v>267</v>
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
       <c r="P47" s="22"/>
-      <c r="Q47" s="1"/>
+      <c r="Q47" s="23"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
-      <c r="T47" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U47" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="V47" s="1"/>
-      <c r="W47" s="22"/>
-      <c r="X47" s="1"/>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
-      <c r="AA47" s="22"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="V47" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="W47" s="1"/>
+      <c r="X47" s="22"/>
+      <c r="Y47" s="23"/>
+      <c r="Z47" s="23"/>
+      <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
-    </row>
-    <row r="48" spans="2:28" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="22"/>
+      <c r="AE47" s="23"/>
+      <c r="AF47" s="23"/>
+      <c r="AG47" s="1"/>
+    </row>
+    <row r="48" spans="2:33" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="I48" s="23" t="s">
+        <v>255</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="4" t="s">
-        <v>135</v>
+        <v>268</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T48" s="4" t="s">
-        <v>75</v>
+        <v>271</v>
+      </c>
+      <c r="S48" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="U48" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="V48" s="4"/>
-      <c r="W48" s="4"/>
-      <c r="X48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y48" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z48" s="1"/>
-      <c r="AA48" s="22"/>
-      <c r="AB48" s="1"/>
-    </row>
-    <row r="49" spans="2:28" ht="31.5" x14ac:dyDescent="0.15">
+        <v>278</v>
+      </c>
+      <c r="V48" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="W48" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="X48" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y48" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z48" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA48" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="AB48" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="AC48" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD48" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE48" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF48" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG48" s="1"/>
+    </row>
+    <row r="49" spans="2:33" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
       <c r="H49" s="1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J49" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="K49" s="26"/>
+        <v>54</v>
+      </c>
+      <c r="J49" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K49" s="29"/>
       <c r="L49" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="M49" s="6"/>
       <c r="N49" s="19"/>
       <c r="O49" s="19"/>
       <c r="P49" s="19"/>
-      <c r="Q49" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="R49" s="26"/>
-      <c r="S49" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="T49" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="U49" s="26"/>
-      <c r="V49" s="7"/>
-      <c r="W49" s="20"/>
-      <c r="X49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y49" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z49" s="1"/>
-      <c r="AA49" s="22"/>
-      <c r="AB49" s="1"/>
-    </row>
-    <row r="50" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="Q49" s="24"/>
+      <c r="R49" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="S49" s="29"/>
+      <c r="T49" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="U49" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="V49" s="29"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="20"/>
+      <c r="Y49" s="26"/>
+      <c r="Z49" s="26"/>
+      <c r="AA49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="22"/>
+      <c r="AE49" s="23"/>
+      <c r="AF49" s="23"/>
+      <c r="AG49" s="1"/>
+    </row>
+    <row r="50" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="22"/>
       <c r="G50" s="22"/>
       <c r="H50" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="M50" s="1"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
       <c r="P50" s="22"/>
-      <c r="Q50" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="Q50" s="23"/>
       <c r="R50" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="S50" s="1"/>
-      <c r="T50" s="22" t="s">
-        <v>86</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T50" s="1"/>
       <c r="U50" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="V50" s="1"/>
-      <c r="W50" s="22"/>
-      <c r="X50" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y50" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z50" s="1"/>
-      <c r="AA50" s="22"/>
-      <c r="AB50" s="1"/>
-    </row>
-    <row r="51" spans="2:28" ht="15.75" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+      <c r="V50" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="W50" s="1"/>
+      <c r="X50" s="22"/>
+      <c r="Y50" s="23"/>
+      <c r="Z50" s="23"/>
+      <c r="AA50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="22"/>
+      <c r="AE50" s="23"/>
+      <c r="AF50" s="23"/>
+      <c r="AG50" s="1"/>
+    </row>
+    <row r="51" spans="2:33" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B51" s="3" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
       <c r="H51" s="6" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="7"/>
       <c r="L51" s="1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="N51" s="21"/>
       <c r="O51" s="21"/>
       <c r="P51" s="21"/>
-      <c r="Q51" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="R51" s="26"/>
-      <c r="S51" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="T51" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="U51" s="26"/>
-      <c r="V51" s="8"/>
-      <c r="W51" s="21"/>
-      <c r="X51" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y51" s="26"/>
-      <c r="Z51" s="7"/>
-      <c r="AA51" s="20"/>
-      <c r="AB51" s="1"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="S51" s="29"/>
+      <c r="T51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U51" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="V51" s="29"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="21"/>
+      <c r="Y51" s="25"/>
+      <c r="Z51" s="25"/>
+      <c r="AA51" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB51" s="29"/>
+      <c r="AC51" s="7"/>
+      <c r="AD51" s="20"/>
+      <c r="AE51" s="26"/>
+      <c r="AF51" s="26"/>
+      <c r="AG51" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="X51:Y51"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="T51:U51"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="E2:G2"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="AA51:AB51"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AC3:AF3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4235,7 +4580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -4246,97 +4591,97 @@
   <sheetData>
     <row r="1" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B2" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
+      <c r="B2" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
       <c r="Q2" s="1" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="S2" s="16" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B3" s="27"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="10" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q3" s="28" t="s">
-        <v>230</v>
+        <v>165</v>
+      </c>
+      <c r="Q3" s="32" t="s">
+        <v>187</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="S3" s="18" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B4" s="10" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -4345,34 +4690,34 @@
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
       <c r="N4" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q4" s="29"/>
+        <v>167</v>
+      </c>
+      <c r="Q4" s="33"/>
       <c r="R4" s="10" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="S4" s="18" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B5" s="11" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="D5" s="12">
         <v>1</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="H5" s="14">
         <v>0</v>
@@ -4390,30 +4735,30 @@
         <v>0</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B6" s="11" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D6" s="12">
         <v>1</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="H6" s="14">
         <v>0</v>
@@ -4431,30 +4776,30 @@
         <v>0</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B7" s="11" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D7" s="12">
         <v>1</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="H7" s="14">
         <v>0</v>
@@ -4472,30 +4817,30 @@
         <v>0</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B8" s="11" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D8" s="12">
         <v>1</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="H8" s="14">
         <v>0</v>
@@ -4513,30 +4858,30 @@
         <v>0</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B9" s="11" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D9" s="12">
         <v>1</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="H9" s="14">
         <v>0</v>
@@ -4554,30 +4899,30 @@
         <v>0</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B10" s="11" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D10" s="12">
         <v>1</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="H10" s="14">
         <v>0</v>
@@ -4595,30 +4940,30 @@
         <v>0</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B11" s="11" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D11" s="12">
         <v>1</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="H11" s="14">
         <v>0</v>
@@ -4636,30 +4981,30 @@
         <v>0</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="H12" s="14">
         <v>0</v>
@@ -4677,30 +5022,30 @@
         <v>0</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B13" s="9" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="H13" s="14">
         <v>0</v>
@@ -4718,30 +5063,30 @@
         <v>0</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B14" s="9" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="H14" s="14">
         <v>0</v>
@@ -4759,30 +5104,30 @@
         <v>0</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B15" s="9" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="H15" s="14">
         <v>0</v>
@@ -4800,30 +5145,30 @@
         <v>0</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B16" s="9" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c r="H16" s="14">
         <v>0</v>
@@ -4841,30 +5186,30 @@
         <v>0</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B17" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="H17" s="14">
         <v>0</v>
@@ -4882,30 +5227,30 @@
         <v>0</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B18" s="9" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="H18" s="14">
         <v>0</v>
@@ -4923,30 +5268,30 @@
         <v>0</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B19" s="9" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="H19" s="14">
         <v>0</v>
@@ -4964,71 +5309,71 @@
         <v>0</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B20" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="H20" s="14">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="N20" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B21" s="9" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="H21" s="14">
         <v>0</v>
@@ -5046,30 +5391,30 @@
         <v>0</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B22" s="9" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="H22" s="14">
         <v>0</v>
@@ -5087,30 +5432,30 @@
         <v>0</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="H23" s="14">
         <v>0</v>
@@ -5128,30 +5473,30 @@
         <v>0</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="H24" s="14">
         <v>0</v>
@@ -5169,30 +5514,30 @@
         <v>0</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="H25" s="14">
         <v>0</v>
@@ -5210,30 +5555,30 @@
         <v>0</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="H26" s="14">
         <v>0</v>
@@ -5251,30 +5596,30 @@
         <v>0</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>219</v>
-      </c>
       <c r="F27" s="16" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="H27" s="14">
         <v>0</v>
@@ -5292,30 +5637,30 @@
         <v>0</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="H28" s="14">
         <v>0</v>
@@ -5333,30 +5678,30 @@
         <v>0</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="H29" s="14">
         <v>0</v>
@@ -5374,30 +5719,30 @@
         <v>0</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B30" s="9" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="H30" s="14">
         <v>0</v>
@@ -5415,30 +5760,30 @@
         <v>0</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B31" s="9" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="H31" s="14">
         <v>0</v>
@@ -5456,30 +5801,30 @@
         <v>0</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B32" s="9" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="H32" s="14">
         <v>0</v>
@@ -5497,30 +5842,30 @@
         <v>0</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B33" s="9" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="H33" s="14">
         <v>0</v>
@@ -5538,30 +5883,30 @@
         <v>0</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="H34" s="14">
         <v>0</v>
@@ -5579,36 +5924,36 @@
         <v>0</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="J35" s="1">
         <v>0</v>
@@ -5623,27 +5968,27 @@
         <v>0</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B36" s="9" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="H36" s="14">
         <v>0</v>
@@ -5661,30 +6006,30 @@
         <v>0</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B37" s="9" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="H37" s="14">
         <v>0</v>
@@ -5702,30 +6047,30 @@
         <v>0</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="N37" s="13" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="H38" s="14">
         <v>0</v>
@@ -5743,30 +6088,30 @@
         <v>0</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="N38" s="13" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="H39" s="14">
         <v>0</v>
@@ -5787,28 +6132,28 @@
         <v>1</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F40" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="H40" s="14">
         <v>0</v>
       </c>
@@ -5828,27 +6173,27 @@
         <v>1</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="H41" s="14">
         <v>0</v>
@@ -5869,27 +6214,27 @@
         <v>1</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B42" s="9" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="H42" s="14">
         <v>0</v>
@@ -5910,27 +6255,27 @@
         <v>1</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="F43" s="16" t="s">
-        <v>194</v>
-      </c>
       <c r="G43" s="1" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="H43" s="14">
         <v>0</v>
@@ -5951,74 +6296,74 @@
         <v>1</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B44" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H44" s="14">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>1</v>
+      </c>
+      <c r="N44" s="11" t="s">
         <v>112</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H44" s="14">
-        <v>0</v>
-      </c>
-      <c r="I44" s="1">
-        <v>0</v>
-      </c>
-      <c r="J44" s="1">
-        <v>1</v>
-      </c>
-      <c r="K44" s="1">
-        <v>0</v>
-      </c>
-      <c r="L44" s="1">
-        <v>0</v>
-      </c>
-      <c r="M44" s="1">
-        <v>1</v>
-      </c>
-      <c r="N44" s="11" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="J45" s="1">
         <v>0</v>
@@ -6030,30 +6375,30 @@
         <v>0</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B46" s="9" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="H46" s="1">
         <v>1</v>
@@ -6071,36 +6416,36 @@
         <v>0</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="J47" s="1">
         <v>0</v>
@@ -6115,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
